--- a/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 4,86</t>
+          <t>-7,32; 4,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 11,71</t>
+          <t>-3,85; 11,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 7,51</t>
+          <t>-5,07; 7,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 10,11</t>
+          <t>-4,82; 9,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-71,29; 117,02</t>
+          <t>-70,86; 100,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 146,7</t>
+          <t>-23,52; 132,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,2; 191,61</t>
+          <t>-51,01; 161,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-54,36; 372,51</t>
+          <t>-55,31; 311,41</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 1,68</t>
+          <t>-6,9; 1,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 4,24</t>
+          <t>-6,16; 4,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 6,71</t>
+          <t>-2,81; 8,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,46; -1,15</t>
+          <t>-11,38; -0,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,66; 28,25</t>
+          <t>-64,33; 29,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,41; 57,51</t>
+          <t>-48,14; 65,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,31; 102,48</t>
+          <t>-28,86; 122,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,16; -12,32</t>
+          <t>-74,63; -4,67</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 0,82</t>
+          <t>-12,74; 0,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 6,18</t>
+          <t>-7,47; 6,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 10,83</t>
+          <t>0,64; 10,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,67</t>
+          <t>-1,79; 6,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-80,31; 12,46</t>
+          <t>-81,2; 6,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,91; 100,5</t>
+          <t>-57,87; 98,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 583,71</t>
+          <t>0,75; 520,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 236,24</t>
+          <t>-32,07; 238,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 7,75</t>
+          <t>-1,91; 7,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 7,57</t>
+          <t>-2,6; 7,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 4,11</t>
+          <t>-5,4; 4,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 0,65</t>
+          <t>-7,96; 0,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 257,09</t>
+          <t>-31,19; 262,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,17; 243,92</t>
+          <t>-39,03; 233,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,23; 119,29</t>
+          <t>-62,1; 132,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,49; 16,59</t>
+          <t>-71,57; 7,18</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,36</t>
+          <t>-3,99; 1,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,23</t>
+          <t>-2,45; 3,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,61</t>
+          <t>-0,58; 4,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,54</t>
+          <t>-4,17; 0,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 21,82</t>
+          <t>-43,32; 18,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 53,82</t>
+          <t>-22,78; 46,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 83,64</t>
+          <t>-7,94; 81,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 8,11</t>
+          <t>-45,6; 8,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>28,55%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 4,84</t>
+          <t>-7,46; 5,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 11,25</t>
+          <t>-4,16; 10,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 7,02</t>
+          <t>-5,29; 7,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 9,44</t>
+          <t>-5,72; 9,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-70,86; 100,32</t>
+          <t>-69,28; 130,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 132,37</t>
+          <t>-27,34; 126,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-51,01; 161,22</t>
+          <t>-54,19; 194,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 311,41</t>
+          <t>-57,44; 287,68</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-49,37%</t>
+          <t>-51,9%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 1,67</t>
+          <t>-6,95; 1,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 4,61</t>
+          <t>-6,25; 4,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 8,02</t>
+          <t>-2,95; 7,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -0,52</t>
+          <t>-12,28; -1,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,33; 29,17</t>
+          <t>-62,61; 30,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 65,4</t>
+          <t>-49,24; 68,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 122,88</t>
+          <t>-28,97; 103,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,63; -4,67</t>
+          <t>-72,99; -4,66</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>52,85%</t>
+          <t>56,81%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 0,25</t>
+          <t>-11,72; 0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 6,6</t>
+          <t>-6,94; 6,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 10,44</t>
+          <t>0,18; 9,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 6,47</t>
+          <t>-1,35; 6,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,2; 6,68</t>
+          <t>-80,4; 11,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,87; 98,37</t>
+          <t>-56,5; 100,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 520,75</t>
+          <t>-5,7; 500,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 238,67</t>
+          <t>-26,14; 285,98</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-39,77%</t>
+          <t>-43,28%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 7,55</t>
+          <t>-1,26; 7,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 7,39</t>
+          <t>-3,51; 7,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 4,53</t>
+          <t>-5,48; 4,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 0,17</t>
+          <t>-7,91; 0,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 262,74</t>
+          <t>-26,71; 271,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 233,8</t>
+          <t>-47,95; 243,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,1; 132,76</t>
+          <t>-66,58; 150,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,57; 7,18</t>
+          <t>-71,64; 5,85</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-23,83%</t>
+          <t>-26,86%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,18</t>
+          <t>-3,97; 1,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,81</t>
+          <t>-2,11; 4,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,51</t>
+          <t>-0,73; 4,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 0,43</t>
+          <t>-4,83; 0,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 18,14</t>
+          <t>-42,67; 18,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 46,11</t>
+          <t>-19,37; 52,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 81,73</t>
+          <t>-9,69; 81,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-45,6; 8,32</t>
+          <t>-49,59; 5,05</t>
         </is>
       </c>
     </row>
